--- a/docker端口映射.xlsx
+++ b/docker端口映射.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="14040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="动态端口映射不指定ip" sheetId="1" r:id="rId1"/>
+    <sheet name="动态端口映射指定IP" sheetId="2" r:id="rId2"/>
+    <sheet name="固定端口映射指定Ip" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -212,6 +214,168 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="5248275"/>
+          <a:ext cx="5209524" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37067</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="180975"/>
+          <a:ext cx="8266667" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56543</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1447800"/>
+          <a:ext cx="4857143" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="180975"/>
+          <a:ext cx="8200000" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1628775"/>
           <a:ext cx="5209524" cy="2209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -518,4 +682,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>